--- a/resource/osaka_minami/shop_list.xlsx
+++ b/resource/osaka_minami/shop_list.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/p000078/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/p000078/.bitnami/stackman/machines/xampp/volumes/root/htdocs/resource/osaka_minami/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F88D0AF-F509-E247-B93D-D64B372BC5F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{913A1A01-50DF-E34E-A2F7-3399183E27DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3140" yWindow="2620" windowWidth="28300" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="204">
   <si>
     <t>ページ</t>
   </si>
@@ -663,6 +663,15 @@
   </si>
   <si>
     <t>大阪市中央区南本町2-4-3</t>
+  </si>
+  <si>
+    <t>NEW/復活</t>
+  </si>
+  <si>
+    <t>NEW</t>
+  </si>
+  <si>
+    <t>復活</t>
   </si>
 </sst>
 </file>
@@ -1617,20 +1626,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F87"/>
+  <dimension ref="A1:G87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
     <col min="3" max="3" width="24.5703125" customWidth="1"/>
     <col min="4" max="4" width="34" customWidth="1"/>
-    <col min="5" max="5" width="42.5703125" customWidth="1"/>
+    <col min="6" max="6" width="42.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1644,13 +1653,16 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -1664,10 +1676,13 @@
         <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>202</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -1681,10 +1696,13 @@
         <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>202</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -1698,10 +1716,13 @@
         <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>202</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1715,10 +1736,13 @@
         <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>202</v>
+      </c>
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -1732,10 +1756,13 @@
         <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>202</v>
+      </c>
+      <c r="F6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1749,10 +1776,13 @@
         <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>202</v>
+      </c>
+      <c r="F7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1766,10 +1796,13 @@
         <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>202</v>
+      </c>
+      <c r="F8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1783,10 +1816,13 @@
         <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>202</v>
+      </c>
+      <c r="F9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1800,10 +1836,13 @@
         <v>29</v>
       </c>
       <c r="E10" t="s">
+        <v>202</v>
+      </c>
+      <c r="F10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -1817,10 +1856,13 @@
         <v>31</v>
       </c>
       <c r="E11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>202</v>
+      </c>
+      <c r="F11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1834,10 +1876,13 @@
         <v>33</v>
       </c>
       <c r="E12" t="s">
+        <v>202</v>
+      </c>
+      <c r="F12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -1851,10 +1896,13 @@
         <v>35</v>
       </c>
       <c r="E13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>202</v>
+      </c>
+      <c r="F13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1868,10 +1916,13 @@
         <v>37</v>
       </c>
       <c r="E14" t="s">
+        <v>202</v>
+      </c>
+      <c r="F14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -1885,10 +1936,13 @@
         <v>40</v>
       </c>
       <c r="E15" t="s">
+        <v>202</v>
+      </c>
+      <c r="F15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -1901,11 +1955,11 @@
       <c r="D16" t="s">
         <v>43</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -1918,11 +1972,11 @@
       <c r="D17" t="s">
         <v>46</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -1935,11 +1989,11 @@
       <c r="D18" t="s">
         <v>48</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -1952,11 +2006,11 @@
       <c r="D19" t="s">
         <v>51</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -1969,11 +2023,11 @@
       <c r="D20" t="s">
         <v>54</v>
       </c>
-      <c r="E20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -1987,10 +2041,13 @@
         <v>56</v>
       </c>
       <c r="E21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>202</v>
+      </c>
+      <c r="F21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -2003,11 +2060,11 @@
       <c r="D22" t="s">
         <v>58</v>
       </c>
-      <c r="E22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -2020,11 +2077,11 @@
       <c r="D23" t="s">
         <v>60</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -2038,10 +2095,13 @@
         <v>63</v>
       </c>
       <c r="E24" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>202</v>
+      </c>
+      <c r="F24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -2054,11 +2114,11 @@
       <c r="D25" t="s">
         <v>65</v>
       </c>
-      <c r="E25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="F25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>38</v>
       </c>
@@ -2071,11 +2131,11 @@
       <c r="D26" t="s">
         <v>67</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -2088,11 +2148,11 @@
       <c r="D27" t="s">
         <v>69</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -2105,11 +2165,11 @@
       <c r="D28" t="s">
         <v>71</v>
       </c>
-      <c r="E28" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="F28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -2122,11 +2182,11 @@
       <c r="D29" t="s">
         <v>73</v>
       </c>
-      <c r="E29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="F29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -2139,11 +2199,11 @@
       <c r="D30" t="s">
         <v>75</v>
       </c>
-      <c r="E30" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="F30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -2156,11 +2216,11 @@
       <c r="D31" t="s">
         <v>65</v>
       </c>
-      <c r="E31" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="F31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -2173,11 +2233,11 @@
       <c r="D32" t="s">
         <v>65</v>
       </c>
-      <c r="E32" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="F32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -2190,11 +2250,11 @@
       <c r="D33" t="s">
         <v>79</v>
       </c>
-      <c r="E33" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="F33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -2207,11 +2267,11 @@
       <c r="D34" t="s">
         <v>81</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -2224,11 +2284,11 @@
       <c r="D35" t="s">
         <v>84</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -2241,11 +2301,11 @@
       <c r="D36" t="s">
         <v>65</v>
       </c>
-      <c r="E36" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="F36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -2259,10 +2319,13 @@
         <v>87</v>
       </c>
       <c r="E37" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>202</v>
+      </c>
+      <c r="F37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -2275,11 +2338,11 @@
       <c r="D38" t="s">
         <v>89</v>
       </c>
-      <c r="E38" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="F38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -2292,11 +2355,11 @@
       <c r="D39" t="s">
         <v>91</v>
       </c>
-      <c r="E39" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="F39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -2309,11 +2372,11 @@
       <c r="D40" t="s">
         <v>93</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>38</v>
       </c>
@@ -2326,11 +2389,11 @@
       <c r="D41" t="s">
         <v>95</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>38</v>
       </c>
@@ -2343,11 +2406,11 @@
       <c r="D42" t="s">
         <v>97</v>
       </c>
-      <c r="E42" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>38</v>
       </c>
@@ -2360,11 +2423,11 @@
       <c r="D43" t="s">
         <v>99</v>
       </c>
-      <c r="E43" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="F43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>38</v>
       </c>
@@ -2378,10 +2441,13 @@
         <v>101</v>
       </c>
       <c r="E44" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>203</v>
+      </c>
+      <c r="F44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>102</v>
       </c>
@@ -2395,10 +2461,13 @@
         <v>104</v>
       </c>
       <c r="E45" t="s">
+        <v>202</v>
+      </c>
+      <c r="F45" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="21">
+    <row r="46" spans="1:6" ht="21">
       <c r="A46" t="s">
         <v>102</v>
       </c>
@@ -2411,11 +2480,14 @@
       <c r="D46" t="s">
         <v>106</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E46" t="s">
+        <v>202</v>
+      </c>
+      <c r="F46" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
         <v>102</v>
       </c>
@@ -2429,10 +2501,13 @@
         <v>109</v>
       </c>
       <c r="E47" t="s">
+        <v>202</v>
+      </c>
+      <c r="F47" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
         <v>102</v>
       </c>
@@ -2446,10 +2521,13 @@
         <v>111</v>
       </c>
       <c r="E48" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>203</v>
+      </c>
+      <c r="F48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
         <v>102</v>
       </c>
@@ -2463,10 +2541,13 @@
         <v>113</v>
       </c>
       <c r="E49" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>203</v>
+      </c>
+      <c r="F49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
         <v>102</v>
       </c>
@@ -2480,10 +2561,13 @@
         <v>115</v>
       </c>
       <c r="E50" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>202</v>
+      </c>
+      <c r="F50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
         <v>102</v>
       </c>
@@ -2496,11 +2580,11 @@
       <c r="D51" t="s">
         <v>117</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="21">
+    <row r="52" spans="1:6" ht="21">
       <c r="A52" t="s">
         <v>102</v>
       </c>
@@ -2513,11 +2597,11 @@
       <c r="D52" t="s">
         <v>120</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="F52" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
         <v>102</v>
       </c>
@@ -2530,11 +2614,11 @@
       <c r="D53" t="s">
         <v>123</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
         <v>102</v>
       </c>
@@ -2548,10 +2632,13 @@
         <v>125</v>
       </c>
       <c r="E54" t="s">
+        <v>203</v>
+      </c>
+      <c r="F54" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
         <v>102</v>
       </c>
@@ -2564,11 +2651,11 @@
       <c r="D55" t="s">
         <v>127</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
         <v>102</v>
       </c>
@@ -2582,10 +2669,13 @@
         <v>129</v>
       </c>
       <c r="E56" t="s">
+        <v>202</v>
+      </c>
+      <c r="F56" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
         <v>102</v>
       </c>
@@ -2599,10 +2689,13 @@
         <v>131</v>
       </c>
       <c r="E57" t="s">
+        <v>203</v>
+      </c>
+      <c r="F57" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
         <v>102</v>
       </c>
@@ -2615,11 +2708,11 @@
       <c r="D58" t="s">
         <v>133</v>
       </c>
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
         <v>102</v>
       </c>
@@ -2632,11 +2725,11 @@
       <c r="D59" t="s">
         <v>135</v>
       </c>
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
         <v>102</v>
       </c>
@@ -2650,10 +2743,13 @@
         <v>138</v>
       </c>
       <c r="E60" t="s">
+        <v>202</v>
+      </c>
+      <c r="F60" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
         <v>102</v>
       </c>
@@ -2666,11 +2762,11 @@
       <c r="D61" t="s">
         <v>141</v>
       </c>
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
         <v>102</v>
       </c>
@@ -2683,11 +2779,11 @@
       <c r="D62" t="s">
         <v>143</v>
       </c>
-      <c r="E62" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
         <v>102</v>
       </c>
@@ -2700,11 +2796,11 @@
       <c r="D63" t="s">
         <v>145</v>
       </c>
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
         <v>102</v>
       </c>
@@ -2717,11 +2813,11 @@
       <c r="D64" t="s">
         <v>148</v>
       </c>
-      <c r="E64" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+      <c r="F64" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
         <v>102</v>
       </c>
@@ -2734,11 +2830,11 @@
       <c r="D65" t="s">
         <v>150</v>
       </c>
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="21">
+    <row r="66" spans="1:6" ht="21">
       <c r="A66" t="s">
         <v>102</v>
       </c>
@@ -2751,11 +2847,11 @@
       <c r="D66" t="s">
         <v>153</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="F66" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
         <v>102</v>
       </c>
@@ -2768,11 +2864,11 @@
       <c r="D67" t="s">
         <v>156</v>
       </c>
-      <c r="E67" t="s">
+      <c r="F67" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
         <v>102</v>
       </c>
@@ -2785,11 +2881,11 @@
       <c r="D68" t="s">
         <v>159</v>
       </c>
-      <c r="E68" t="s">
+      <c r="F68" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
         <v>102</v>
       </c>
@@ -2802,11 +2898,11 @@
       <c r="D69" t="s">
         <v>162</v>
       </c>
-      <c r="E69" t="s">
+      <c r="F69" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
         <v>102</v>
       </c>
@@ -2820,10 +2916,13 @@
         <v>165</v>
       </c>
       <c r="E70" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>202</v>
+      </c>
+      <c r="F70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" t="s">
         <v>166</v>
       </c>
@@ -2837,10 +2936,13 @@
         <v>168</v>
       </c>
       <c r="E71" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>202</v>
+      </c>
+      <c r="F71" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
         <v>166</v>
       </c>
@@ -2854,10 +2956,13 @@
         <v>170</v>
       </c>
       <c r="E72" t="s">
+        <v>203</v>
+      </c>
+      <c r="F72" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:6">
       <c r="A73" t="s">
         <v>166</v>
       </c>
@@ -2871,10 +2976,13 @@
         <v>172</v>
       </c>
       <c r="E73" t="s">
+        <v>203</v>
+      </c>
+      <c r="F73" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:6">
       <c r="A74" t="s">
         <v>166</v>
       </c>
@@ -2887,11 +2995,11 @@
       <c r="D74" t="s">
         <v>174</v>
       </c>
-      <c r="E74" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+      <c r="F74" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" t="s">
         <v>166</v>
       </c>
@@ -2904,11 +3012,11 @@
       <c r="D75" t="s">
         <v>176</v>
       </c>
-      <c r="E75" t="s">
+      <c r="F75" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:6">
       <c r="A76" t="s">
         <v>166</v>
       </c>
@@ -2921,11 +3029,11 @@
       <c r="D76" t="s">
         <v>178</v>
       </c>
-      <c r="E76" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+      <c r="F76" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" t="s">
         <v>166</v>
       </c>
@@ -2938,11 +3046,11 @@
       <c r="D77" t="s">
         <v>180</v>
       </c>
-      <c r="E77" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+      <c r="F77" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" t="s">
         <v>166</v>
       </c>
@@ -2956,10 +3064,13 @@
         <v>182</v>
       </c>
       <c r="E78" t="s">
+        <v>203</v>
+      </c>
+      <c r="F78" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:6">
       <c r="A79" t="s">
         <v>166</v>
       </c>
@@ -2972,11 +3083,11 @@
       <c r="D79" t="s">
         <v>184</v>
       </c>
-      <c r="E79" t="s">
+      <c r="F79" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:6">
       <c r="A80" t="s">
         <v>166</v>
       </c>
@@ -2990,10 +3101,13 @@
         <v>186</v>
       </c>
       <c r="E80" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>203</v>
+      </c>
+      <c r="F80" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" t="s">
         <v>166</v>
       </c>
@@ -3006,11 +3120,11 @@
       <c r="D81" t="s">
         <v>188</v>
       </c>
-      <c r="E81" t="s">
+      <c r="F81" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:6">
       <c r="A82" t="s">
         <v>166</v>
       </c>
@@ -3024,10 +3138,13 @@
         <v>190</v>
       </c>
       <c r="E82" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>202</v>
+      </c>
+      <c r="F82" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" t="s">
         <v>166</v>
       </c>
@@ -3040,11 +3157,11 @@
       <c r="D83" t="s">
         <v>192</v>
       </c>
-      <c r="E83" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+      <c r="F83" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" t="s">
         <v>193</v>
       </c>
@@ -3058,10 +3175,13 @@
         <v>195</v>
       </c>
       <c r="E84" t="s">
+        <v>203</v>
+      </c>
+      <c r="F84" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:6">
       <c r="A85" t="s">
         <v>193</v>
       </c>
@@ -3075,10 +3195,13 @@
         <v>197</v>
       </c>
       <c r="E85" t="s">
+        <v>203</v>
+      </c>
+      <c r="F85" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:6">
       <c r="A86" t="s">
         <v>193</v>
       </c>
@@ -3092,10 +3215,13 @@
         <v>197</v>
       </c>
       <c r="E86" t="s">
+        <v>203</v>
+      </c>
+      <c r="F86" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:6">
       <c r="A87" t="s">
         <v>166</v>
       </c>
@@ -3109,6 +3235,9 @@
         <v>200</v>
       </c>
       <c r="E87" t="s">
+        <v>202</v>
+      </c>
+      <c r="F87" t="s">
         <v>5</v>
       </c>
     </row>

--- a/resource/osaka_minami/shop_list.xlsx
+++ b/resource/osaka_minami/shop_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/p000078/.bitnami/stackman/machines/xampp/volumes/root/htdocs/resource/osaka_minami/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{913A1A01-50DF-E34E-A2F7-3399183E27DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF1803B3-DDD8-D241-93E0-0306272E0FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3140" yWindow="2620" windowWidth="28300" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="208">
   <si>
     <t>ページ</t>
   </si>
@@ -672,6 +672,19 @@
   </si>
   <si>
     <t>復活</t>
+  </si>
+  <si>
+    <t>期間延長日</t>
+  </si>
+  <si>
+    <t>閉店フラグ</t>
+  </si>
+  <si>
+    <t>お知らせ</t>
+  </si>
+  <si>
+    <t>なし</t>
+    <phoneticPr fontId="18"/>
   </si>
 </sst>
 </file>
@@ -1626,10 +1639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G87"/>
+  <dimension ref="A1:J87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="K84" sqref="K84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1639,7 +1652,7 @@
     <col min="6" max="6" width="42.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1661,8 +1674,17 @@
       <c r="G1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" t="s">
+        <v>204</v>
+      </c>
+      <c r="I1" t="s">
+        <v>205</v>
+      </c>
+      <c r="J1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -1681,8 +1703,17 @@
       <c r="F2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" t="s">
+        <v>207</v>
+      </c>
+      <c r="I2" t="s">
+        <v>207</v>
+      </c>
+      <c r="J2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -1701,8 +1732,17 @@
       <c r="F3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" t="s">
+        <v>207</v>
+      </c>
+      <c r="I3" t="s">
+        <v>207</v>
+      </c>
+      <c r="J3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -1721,8 +1761,17 @@
       <c r="F4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" t="s">
+        <v>207</v>
+      </c>
+      <c r="I4" t="s">
+        <v>207</v>
+      </c>
+      <c r="J4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1741,8 +1790,17 @@
       <c r="F5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" t="s">
+        <v>207</v>
+      </c>
+      <c r="I5" t="s">
+        <v>207</v>
+      </c>
+      <c r="J5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -1761,8 +1819,17 @@
       <c r="F6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" t="s">
+        <v>207</v>
+      </c>
+      <c r="I6" t="s">
+        <v>207</v>
+      </c>
+      <c r="J6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1781,8 +1848,17 @@
       <c r="F7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" t="s">
+        <v>207</v>
+      </c>
+      <c r="I7" t="s">
+        <v>207</v>
+      </c>
+      <c r="J7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1801,8 +1877,17 @@
       <c r="F8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" t="s">
+        <v>207</v>
+      </c>
+      <c r="I8" t="s">
+        <v>207</v>
+      </c>
+      <c r="J8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1821,8 +1906,17 @@
       <c r="F9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" t="s">
+        <v>207</v>
+      </c>
+      <c r="I9" t="s">
+        <v>207</v>
+      </c>
+      <c r="J9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1841,8 +1935,17 @@
       <c r="F10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" t="s">
+        <v>207</v>
+      </c>
+      <c r="I10" t="s">
+        <v>207</v>
+      </c>
+      <c r="J10" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -1861,8 +1964,17 @@
       <c r="F11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" t="s">
+        <v>207</v>
+      </c>
+      <c r="I11" t="s">
+        <v>207</v>
+      </c>
+      <c r="J11" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1881,8 +1993,17 @@
       <c r="F12" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" t="s">
+        <v>207</v>
+      </c>
+      <c r="I12" t="s">
+        <v>207</v>
+      </c>
+      <c r="J12" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -1901,8 +2022,17 @@
       <c r="F13" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13" t="s">
+        <v>207</v>
+      </c>
+      <c r="I13" t="s">
+        <v>207</v>
+      </c>
+      <c r="J13" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1921,8 +2051,17 @@
       <c r="F14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14" t="s">
+        <v>207</v>
+      </c>
+      <c r="I14" t="s">
+        <v>207</v>
+      </c>
+      <c r="J14" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -1941,8 +2080,17 @@
       <c r="F15" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15" t="s">
+        <v>207</v>
+      </c>
+      <c r="I15" t="s">
+        <v>207</v>
+      </c>
+      <c r="J15" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -1958,8 +2106,17 @@
       <c r="F16" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="H16" t="s">
+        <v>207</v>
+      </c>
+      <c r="I16" t="s">
+        <v>207</v>
+      </c>
+      <c r="J16" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -1975,8 +2132,17 @@
       <c r="F17" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="H17" t="s">
+        <v>207</v>
+      </c>
+      <c r="I17" t="s">
+        <v>207</v>
+      </c>
+      <c r="J17" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -1992,8 +2158,17 @@
       <c r="F18" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="H18" t="s">
+        <v>207</v>
+      </c>
+      <c r="I18" t="s">
+        <v>207</v>
+      </c>
+      <c r="J18" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -2009,8 +2184,17 @@
       <c r="F19" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="H19" t="s">
+        <v>207</v>
+      </c>
+      <c r="I19" t="s">
+        <v>207</v>
+      </c>
+      <c r="J19" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -2026,8 +2210,17 @@
       <c r="F20" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="H20" t="s">
+        <v>207</v>
+      </c>
+      <c r="I20" t="s">
+        <v>207</v>
+      </c>
+      <c r="J20" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -2046,8 +2239,17 @@
       <c r="F21" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="H21" t="s">
+        <v>207</v>
+      </c>
+      <c r="I21" t="s">
+        <v>207</v>
+      </c>
+      <c r="J21" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -2063,8 +2265,17 @@
       <c r="F22" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="H22" t="s">
+        <v>207</v>
+      </c>
+      <c r="I22" t="s">
+        <v>207</v>
+      </c>
+      <c r="J22" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -2080,8 +2291,17 @@
       <c r="F23" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="H23" t="s">
+        <v>207</v>
+      </c>
+      <c r="I23" t="s">
+        <v>207</v>
+      </c>
+      <c r="J23" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -2100,8 +2320,17 @@
       <c r="F24" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="H24" t="s">
+        <v>207</v>
+      </c>
+      <c r="I24" t="s">
+        <v>207</v>
+      </c>
+      <c r="J24" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -2117,8 +2346,17 @@
       <c r="F25" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="H25" t="s">
+        <v>207</v>
+      </c>
+      <c r="I25" t="s">
+        <v>207</v>
+      </c>
+      <c r="J25" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
         <v>38</v>
       </c>
@@ -2134,8 +2372,17 @@
       <c r="F26" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="H26" t="s">
+        <v>207</v>
+      </c>
+      <c r="I26" t="s">
+        <v>207</v>
+      </c>
+      <c r="J26" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -2151,8 +2398,17 @@
       <c r="F27" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="H27" t="s">
+        <v>207</v>
+      </c>
+      <c r="I27" t="s">
+        <v>207</v>
+      </c>
+      <c r="J27" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -2168,8 +2424,17 @@
       <c r="F28" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="H28" t="s">
+        <v>207</v>
+      </c>
+      <c r="I28" t="s">
+        <v>207</v>
+      </c>
+      <c r="J28" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -2185,8 +2450,17 @@
       <c r="F29" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="H29" t="s">
+        <v>207</v>
+      </c>
+      <c r="I29" t="s">
+        <v>207</v>
+      </c>
+      <c r="J29" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -2202,8 +2476,17 @@
       <c r="F30" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="H30" t="s">
+        <v>207</v>
+      </c>
+      <c r="I30" t="s">
+        <v>207</v>
+      </c>
+      <c r="J30" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -2219,8 +2502,17 @@
       <c r="F31" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="H31" t="s">
+        <v>207</v>
+      </c>
+      <c r="I31" t="s">
+        <v>207</v>
+      </c>
+      <c r="J31" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -2236,8 +2528,17 @@
       <c r="F32" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="H32" t="s">
+        <v>207</v>
+      </c>
+      <c r="I32" t="s">
+        <v>207</v>
+      </c>
+      <c r="J32" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -2253,8 +2554,17 @@
       <c r="F33" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="H33" t="s">
+        <v>207</v>
+      </c>
+      <c r="I33" t="s">
+        <v>207</v>
+      </c>
+      <c r="J33" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -2270,8 +2580,17 @@
       <c r="F34" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="H34" t="s">
+        <v>207</v>
+      </c>
+      <c r="I34" t="s">
+        <v>207</v>
+      </c>
+      <c r="J34" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -2287,8 +2606,17 @@
       <c r="F35" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="H35" t="s">
+        <v>207</v>
+      </c>
+      <c r="I35" t="s">
+        <v>207</v>
+      </c>
+      <c r="J35" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -2304,8 +2632,17 @@
       <c r="F36" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="H36" t="s">
+        <v>207</v>
+      </c>
+      <c r="I36" t="s">
+        <v>207</v>
+      </c>
+      <c r="J36" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -2324,8 +2661,17 @@
       <c r="F37" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="H37" t="s">
+        <v>207</v>
+      </c>
+      <c r="I37" t="s">
+        <v>207</v>
+      </c>
+      <c r="J37" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -2341,8 +2687,17 @@
       <c r="F38" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="H38" t="s">
+        <v>207</v>
+      </c>
+      <c r="I38" t="s">
+        <v>207</v>
+      </c>
+      <c r="J38" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -2358,8 +2713,17 @@
       <c r="F39" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="H39" t="s">
+        <v>207</v>
+      </c>
+      <c r="I39" t="s">
+        <v>207</v>
+      </c>
+      <c r="J39" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -2375,8 +2739,17 @@
       <c r="F40" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="H40" t="s">
+        <v>207</v>
+      </c>
+      <c r="I40" t="s">
+        <v>207</v>
+      </c>
+      <c r="J40" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" t="s">
         <v>38</v>
       </c>
@@ -2392,8 +2765,17 @@
       <c r="F41" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="H41" t="s">
+        <v>207</v>
+      </c>
+      <c r="I41" t="s">
+        <v>207</v>
+      </c>
+      <c r="J41" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" t="s">
         <v>38</v>
       </c>
@@ -2409,8 +2791,17 @@
       <c r="F42" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="H42" t="s">
+        <v>207</v>
+      </c>
+      <c r="I42" t="s">
+        <v>207</v>
+      </c>
+      <c r="J42" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" t="s">
         <v>38</v>
       </c>
@@ -2426,8 +2817,17 @@
       <c r="F43" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="H43" t="s">
+        <v>207</v>
+      </c>
+      <c r="I43" t="s">
+        <v>207</v>
+      </c>
+      <c r="J43" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" t="s">
         <v>38</v>
       </c>
@@ -2446,8 +2846,17 @@
       <c r="F44" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="H44" t="s">
+        <v>207</v>
+      </c>
+      <c r="I44" t="s">
+        <v>207</v>
+      </c>
+      <c r="J44" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" t="s">
         <v>102</v>
       </c>
@@ -2466,8 +2875,17 @@
       <c r="F45" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" ht="21">
+      <c r="H45" t="s">
+        <v>207</v>
+      </c>
+      <c r="I45" t="s">
+        <v>207</v>
+      </c>
+      <c r="J45" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="21">
       <c r="A46" t="s">
         <v>102</v>
       </c>
@@ -2486,8 +2904,17 @@
       <c r="F46" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="H46" t="s">
+        <v>207</v>
+      </c>
+      <c r="I46" t="s">
+        <v>207</v>
+      </c>
+      <c r="J46" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" t="s">
         <v>102</v>
       </c>
@@ -2506,8 +2933,17 @@
       <c r="F47" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="H47" t="s">
+        <v>207</v>
+      </c>
+      <c r="I47" t="s">
+        <v>207</v>
+      </c>
+      <c r="J47" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" t="s">
         <v>102</v>
       </c>
@@ -2526,8 +2962,17 @@
       <c r="F48" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="1:6">
+      <c r="H48" t="s">
+        <v>207</v>
+      </c>
+      <c r="I48" t="s">
+        <v>207</v>
+      </c>
+      <c r="J48" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" t="s">
         <v>102</v>
       </c>
@@ -2546,8 +2991,17 @@
       <c r="F49" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="H49" t="s">
+        <v>207</v>
+      </c>
+      <c r="I49" t="s">
+        <v>207</v>
+      </c>
+      <c r="J49" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" t="s">
         <v>102</v>
       </c>
@@ -2566,8 +3020,17 @@
       <c r="F50" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="51" spans="1:6">
+      <c r="H50" t="s">
+        <v>207</v>
+      </c>
+      <c r="I50" t="s">
+        <v>207</v>
+      </c>
+      <c r="J50" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" t="s">
         <v>102</v>
       </c>
@@ -2583,8 +3046,17 @@
       <c r="F51" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" ht="21">
+      <c r="H51" t="s">
+        <v>207</v>
+      </c>
+      <c r="I51" t="s">
+        <v>207</v>
+      </c>
+      <c r="J51" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="21">
       <c r="A52" t="s">
         <v>102</v>
       </c>
@@ -2600,8 +3072,17 @@
       <c r="F52" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="H52" t="s">
+        <v>207</v>
+      </c>
+      <c r="I52" t="s">
+        <v>207</v>
+      </c>
+      <c r="J52" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" t="s">
         <v>102</v>
       </c>
@@ -2617,8 +3098,17 @@
       <c r="F53" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="54" spans="1:6">
+      <c r="H53" t="s">
+        <v>207</v>
+      </c>
+      <c r="I53" t="s">
+        <v>207</v>
+      </c>
+      <c r="J53" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" t="s">
         <v>102</v>
       </c>
@@ -2637,8 +3127,17 @@
       <c r="F54" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="55" spans="1:6">
+      <c r="H54" t="s">
+        <v>207</v>
+      </c>
+      <c r="I54" t="s">
+        <v>207</v>
+      </c>
+      <c r="J54" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" t="s">
         <v>102</v>
       </c>
@@ -2654,8 +3153,17 @@
       <c r="F55" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="56" spans="1:6">
+      <c r="H55" t="s">
+        <v>207</v>
+      </c>
+      <c r="I55" t="s">
+        <v>207</v>
+      </c>
+      <c r="J55" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" t="s">
         <v>102</v>
       </c>
@@ -2674,8 +3182,17 @@
       <c r="F56" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="57" spans="1:6">
+      <c r="H56" t="s">
+        <v>207</v>
+      </c>
+      <c r="I56" t="s">
+        <v>207</v>
+      </c>
+      <c r="J56" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" t="s">
         <v>102</v>
       </c>
@@ -2694,8 +3211,17 @@
       <c r="F57" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="H57" t="s">
+        <v>207</v>
+      </c>
+      <c r="I57" t="s">
+        <v>207</v>
+      </c>
+      <c r="J57" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" t="s">
         <v>102</v>
       </c>
@@ -2711,8 +3237,17 @@
       <c r="F58" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="59" spans="1:6">
+      <c r="H58" t="s">
+        <v>207</v>
+      </c>
+      <c r="I58" t="s">
+        <v>207</v>
+      </c>
+      <c r="J58" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" t="s">
         <v>102</v>
       </c>
@@ -2728,8 +3263,17 @@
       <c r="F59" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="60" spans="1:6">
+      <c r="H59" t="s">
+        <v>207</v>
+      </c>
+      <c r="I59" t="s">
+        <v>207</v>
+      </c>
+      <c r="J59" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" t="s">
         <v>102</v>
       </c>
@@ -2748,8 +3292,17 @@
       <c r="F60" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="61" spans="1:6">
+      <c r="H60" t="s">
+        <v>207</v>
+      </c>
+      <c r="I60" t="s">
+        <v>207</v>
+      </c>
+      <c r="J60" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" t="s">
         <v>102</v>
       </c>
@@ -2765,8 +3318,17 @@
       <c r="F61" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="62" spans="1:6">
+      <c r="H61" t="s">
+        <v>207</v>
+      </c>
+      <c r="I61" t="s">
+        <v>207</v>
+      </c>
+      <c r="J61" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" t="s">
         <v>102</v>
       </c>
@@ -2782,8 +3344,17 @@
       <c r="F62" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="H62" t="s">
+        <v>207</v>
+      </c>
+      <c r="I62" t="s">
+        <v>207</v>
+      </c>
+      <c r="J62" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" t="s">
         <v>102</v>
       </c>
@@ -2799,8 +3370,17 @@
       <c r="F63" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="64" spans="1:6">
+      <c r="H63" t="s">
+        <v>207</v>
+      </c>
+      <c r="I63" t="s">
+        <v>207</v>
+      </c>
+      <c r="J63" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" t="s">
         <v>102</v>
       </c>
@@ -2816,8 +3396,17 @@
       <c r="F64" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="65" spans="1:6">
+      <c r="H64" t="s">
+        <v>207</v>
+      </c>
+      <c r="I64" t="s">
+        <v>207</v>
+      </c>
+      <c r="J64" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" t="s">
         <v>102</v>
       </c>
@@ -2833,8 +3422,17 @@
       <c r="F65" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" ht="21">
+      <c r="H65" t="s">
+        <v>207</v>
+      </c>
+      <c r="I65" t="s">
+        <v>207</v>
+      </c>
+      <c r="J65" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="21">
       <c r="A66" t="s">
         <v>102</v>
       </c>
@@ -2850,8 +3448,17 @@
       <c r="F66" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="67" spans="1:6">
+      <c r="H66" t="s">
+        <v>207</v>
+      </c>
+      <c r="I66" t="s">
+        <v>207</v>
+      </c>
+      <c r="J66" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" t="s">
         <v>102</v>
       </c>
@@ -2867,8 +3474,17 @@
       <c r="F67" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="68" spans="1:6">
+      <c r="H67" t="s">
+        <v>207</v>
+      </c>
+      <c r="I67" t="s">
+        <v>207</v>
+      </c>
+      <c r="J67" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" t="s">
         <v>102</v>
       </c>
@@ -2884,8 +3500,17 @@
       <c r="F68" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="69" spans="1:6">
+      <c r="H68" t="s">
+        <v>207</v>
+      </c>
+      <c r="I68" t="s">
+        <v>207</v>
+      </c>
+      <c r="J68" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" t="s">
         <v>102</v>
       </c>
@@ -2901,8 +3526,17 @@
       <c r="F69" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="70" spans="1:6">
+      <c r="H69" t="s">
+        <v>207</v>
+      </c>
+      <c r="I69" t="s">
+        <v>207</v>
+      </c>
+      <c r="J69" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" t="s">
         <v>102</v>
       </c>
@@ -2921,8 +3555,17 @@
       <c r="F70" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="H70" t="s">
+        <v>207</v>
+      </c>
+      <c r="I70" t="s">
+        <v>207</v>
+      </c>
+      <c r="J70" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" t="s">
         <v>166</v>
       </c>
@@ -2941,8 +3584,17 @@
       <c r="F71" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="72" spans="1:6">
+      <c r="H71" t="s">
+        <v>207</v>
+      </c>
+      <c r="I71" t="s">
+        <v>207</v>
+      </c>
+      <c r="J71" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" t="s">
         <v>166</v>
       </c>
@@ -2961,8 +3613,17 @@
       <c r="F72" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="73" spans="1:6">
+      <c r="H72" t="s">
+        <v>207</v>
+      </c>
+      <c r="I72" t="s">
+        <v>207</v>
+      </c>
+      <c r="J72" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" t="s">
         <v>166</v>
       </c>
@@ -2981,8 +3642,17 @@
       <c r="F73" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="74" spans="1:6">
+      <c r="H73" t="s">
+        <v>207</v>
+      </c>
+      <c r="I73" t="s">
+        <v>207</v>
+      </c>
+      <c r="J73" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" t="s">
         <v>166</v>
       </c>
@@ -2998,8 +3668,17 @@
       <c r="F74" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="75" spans="1:6">
+      <c r="H74" t="s">
+        <v>207</v>
+      </c>
+      <c r="I74" t="s">
+        <v>207</v>
+      </c>
+      <c r="J74" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" t="s">
         <v>166</v>
       </c>
@@ -3015,8 +3694,17 @@
       <c r="F75" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="76" spans="1:6">
+      <c r="H75" t="s">
+        <v>207</v>
+      </c>
+      <c r="I75" t="s">
+        <v>207</v>
+      </c>
+      <c r="J75" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" t="s">
         <v>166</v>
       </c>
@@ -3032,8 +3720,17 @@
       <c r="F76" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="1:6">
+      <c r="H76" t="s">
+        <v>207</v>
+      </c>
+      <c r="I76" t="s">
+        <v>207</v>
+      </c>
+      <c r="J76" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" t="s">
         <v>166</v>
       </c>
@@ -3049,8 +3746,17 @@
       <c r="F77" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="78" spans="1:6">
+      <c r="H77" t="s">
+        <v>207</v>
+      </c>
+      <c r="I77" t="s">
+        <v>207</v>
+      </c>
+      <c r="J77" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" t="s">
         <v>166</v>
       </c>
@@ -3069,8 +3775,17 @@
       <c r="F78" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="79" spans="1:6">
+      <c r="H78" t="s">
+        <v>207</v>
+      </c>
+      <c r="I78" t="s">
+        <v>207</v>
+      </c>
+      <c r="J78" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" t="s">
         <v>166</v>
       </c>
@@ -3086,8 +3801,17 @@
       <c r="F79" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="H79" t="s">
+        <v>207</v>
+      </c>
+      <c r="I79" t="s">
+        <v>207</v>
+      </c>
+      <c r="J79" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" t="s">
         <v>166</v>
       </c>
@@ -3106,8 +3830,17 @@
       <c r="F80" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="81" spans="1:6">
+      <c r="H80" t="s">
+        <v>207</v>
+      </c>
+      <c r="I80" t="s">
+        <v>207</v>
+      </c>
+      <c r="J80" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" t="s">
         <v>166</v>
       </c>
@@ -3123,8 +3856,17 @@
       <c r="F81" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="82" spans="1:6">
+      <c r="H81" t="s">
+        <v>207</v>
+      </c>
+      <c r="I81" t="s">
+        <v>207</v>
+      </c>
+      <c r="J81" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" t="s">
         <v>166</v>
       </c>
@@ -3143,8 +3885,17 @@
       <c r="F82" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="H82" t="s">
+        <v>207</v>
+      </c>
+      <c r="I82" t="s">
+        <v>207</v>
+      </c>
+      <c r="J82" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" t="s">
         <v>166</v>
       </c>
@@ -3160,8 +3911,17 @@
       <c r="F83" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="1:6">
+      <c r="H83" t="s">
+        <v>207</v>
+      </c>
+      <c r="I83" t="s">
+        <v>207</v>
+      </c>
+      <c r="J83" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" t="s">
         <v>193</v>
       </c>
@@ -3180,8 +3940,17 @@
       <c r="F84" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="H84" t="s">
+        <v>207</v>
+      </c>
+      <c r="I84" t="s">
+        <v>207</v>
+      </c>
+      <c r="J84" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" t="s">
         <v>193</v>
       </c>
@@ -3200,8 +3969,17 @@
       <c r="F85" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="86" spans="1:6">
+      <c r="H85" t="s">
+        <v>207</v>
+      </c>
+      <c r="I85" t="s">
+        <v>207</v>
+      </c>
+      <c r="J85" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" t="s">
         <v>193</v>
       </c>
@@ -3220,8 +3998,17 @@
       <c r="F86" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="87" spans="1:6">
+      <c r="H86" t="s">
+        <v>207</v>
+      </c>
+      <c r="I86" t="s">
+        <v>207</v>
+      </c>
+      <c r="J86" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" t="s">
         <v>166</v>
       </c>
@@ -3239,6 +4026,15 @@
       </c>
       <c r="F87" t="s">
         <v>5</v>
+      </c>
+      <c r="H87" t="s">
+        <v>207</v>
+      </c>
+      <c r="I87" t="s">
+        <v>207</v>
+      </c>
+      <c r="J87" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>

--- a/resource/osaka_minami/shop_list.xlsx
+++ b/resource/osaka_minami/shop_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/p000078/.bitnami/stackman/machines/xampp/volumes/root/htdocs/resource/osaka_minami/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF1803B3-DDD8-D241-93E0-0306272E0FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F84DCE52-B8EA-5647-B0F2-7AA5AF0A97D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3140" yWindow="2620" windowWidth="28300" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="209">
   <si>
     <t>ページ</t>
   </si>
@@ -684,6 +684,13 @@
   </si>
   <si>
     <t>なし</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>お知らせ画像</t>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">ガゾウ </t>
+    </rPh>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1639,10 +1646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J87"/>
+  <dimension ref="A1:K87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="K84" sqref="K84"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L88" sqref="L88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1652,7 +1659,7 @@
     <col min="6" max="6" width="42.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1683,8 +1690,11 @@
       <c r="J1" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -1712,8 +1722,11 @@
       <c r="J2" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -1741,8 +1754,11 @@
       <c r="J3" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -1770,8 +1786,11 @@
       <c r="J4" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="K4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1799,8 +1818,11 @@
       <c r="J5" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="K5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -1828,8 +1850,11 @@
       <c r="J6" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1857,8 +1882,11 @@
       <c r="J7" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="K7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1886,8 +1914,11 @@
       <c r="J8" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="K8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1915,8 +1946,11 @@
       <c r="J9" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="K9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1944,8 +1978,11 @@
       <c r="J10" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="K10" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -1973,8 +2010,11 @@
       <c r="J11" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="K11" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -2002,8 +2042,11 @@
       <c r="J12" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="K12" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -2031,8 +2074,11 @@
       <c r="J13" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="K13" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -2060,8 +2106,11 @@
       <c r="J14" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K14" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -2089,8 +2138,11 @@
       <c r="J15" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="K15" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -2115,8 +2167,11 @@
       <c r="J16" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="K16" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -2141,8 +2196,11 @@
       <c r="J17" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="K17" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -2167,8 +2225,11 @@
       <c r="J18" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="K18" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -2193,8 +2254,11 @@
       <c r="J19" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="K19" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -2219,8 +2283,11 @@
       <c r="J20" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="K20" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -2248,8 +2315,11 @@
       <c r="J21" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="K21" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -2274,8 +2344,11 @@
       <c r="J22" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="K22" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -2300,8 +2373,11 @@
       <c r="J23" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="K23" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -2329,8 +2405,11 @@
       <c r="J24" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="K24" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -2355,8 +2434,11 @@
       <c r="J25" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="K25" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" t="s">
         <v>38</v>
       </c>
@@ -2381,8 +2463,11 @@
       <c r="J26" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="K26" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -2407,8 +2492,11 @@
       <c r="J27" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="K27" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -2433,8 +2521,11 @@
       <c r="J28" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="K28" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -2459,8 +2550,11 @@
       <c r="J29" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="K29" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -2485,8 +2579,11 @@
       <c r="J30" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="K30" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -2511,8 +2608,11 @@
       <c r="J31" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="K31" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -2537,8 +2637,11 @@
       <c r="J32" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="K32" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -2563,8 +2666,11 @@
       <c r="J33" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="K33" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -2589,8 +2695,11 @@
       <c r="J34" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="35" spans="1:10">
+      <c r="K34" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -2615,8 +2724,11 @@
       <c r="J35" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="36" spans="1:10">
+      <c r="K35" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -2641,8 +2753,11 @@
       <c r="J36" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="37" spans="1:10">
+      <c r="K36" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -2670,8 +2785,11 @@
       <c r="J37" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="38" spans="1:10">
+      <c r="K37" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -2696,8 +2814,11 @@
       <c r="J38" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="39" spans="1:10">
+      <c r="K38" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -2722,8 +2843,11 @@
       <c r="J39" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="40" spans="1:10">
+      <c r="K39" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -2748,8 +2872,11 @@
       <c r="J40" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="41" spans="1:10">
+      <c r="K40" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" t="s">
         <v>38</v>
       </c>
@@ -2774,8 +2901,11 @@
       <c r="J41" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="42" spans="1:10">
+      <c r="K41" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" t="s">
         <v>38</v>
       </c>
@@ -2800,8 +2930,11 @@
       <c r="J42" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="43" spans="1:10">
+      <c r="K42" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" t="s">
         <v>38</v>
       </c>
@@ -2826,8 +2959,11 @@
       <c r="J43" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="44" spans="1:10">
+      <c r="K43" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" t="s">
         <v>38</v>
       </c>
@@ -2855,8 +2991,11 @@
       <c r="J44" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="45" spans="1:10">
+      <c r="K44" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" t="s">
         <v>102</v>
       </c>
@@ -2884,8 +3023,11 @@
       <c r="J45" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" ht="21">
+      <c r="K45" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="21">
       <c r="A46" t="s">
         <v>102</v>
       </c>
@@ -2913,8 +3055,11 @@
       <c r="J46" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="47" spans="1:10">
+      <c r="K46" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" t="s">
         <v>102</v>
       </c>
@@ -2942,8 +3087,11 @@
       <c r="J47" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="48" spans="1:10">
+      <c r="K47" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" t="s">
         <v>102</v>
       </c>
@@ -2971,8 +3119,11 @@
       <c r="J48" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="49" spans="1:10">
+      <c r="K48" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" t="s">
         <v>102</v>
       </c>
@@ -3000,8 +3151,11 @@
       <c r="J49" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="50" spans="1:10">
+      <c r="K49" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" t="s">
         <v>102</v>
       </c>
@@ -3029,8 +3183,11 @@
       <c r="J50" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="51" spans="1:10">
+      <c r="K50" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" t="s">
         <v>102</v>
       </c>
@@ -3055,8 +3212,11 @@
       <c r="J51" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" ht="21">
+      <c r="K51" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="21">
       <c r="A52" t="s">
         <v>102</v>
       </c>
@@ -3081,8 +3241,11 @@
       <c r="J52" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="53" spans="1:10">
+      <c r="K52" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" t="s">
         <v>102</v>
       </c>
@@ -3107,8 +3270,11 @@
       <c r="J53" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="54" spans="1:10">
+      <c r="K53" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" t="s">
         <v>102</v>
       </c>
@@ -3136,8 +3302,11 @@
       <c r="J54" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="55" spans="1:10">
+      <c r="K54" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" t="s">
         <v>102</v>
       </c>
@@ -3162,8 +3331,11 @@
       <c r="J55" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="56" spans="1:10">
+      <c r="K55" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" t="s">
         <v>102</v>
       </c>
@@ -3191,8 +3363,11 @@
       <c r="J56" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="57" spans="1:10">
+      <c r="K56" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" t="s">
         <v>102</v>
       </c>
@@ -3220,8 +3395,11 @@
       <c r="J57" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="58" spans="1:10">
+      <c r="K57" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" t="s">
         <v>102</v>
       </c>
@@ -3246,8 +3424,11 @@
       <c r="J58" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="59" spans="1:10">
+      <c r="K58" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" t="s">
         <v>102</v>
       </c>
@@ -3272,8 +3453,11 @@
       <c r="J59" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="60" spans="1:10">
+      <c r="K59" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" t="s">
         <v>102</v>
       </c>
@@ -3301,8 +3485,11 @@
       <c r="J60" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="61" spans="1:10">
+      <c r="K60" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" t="s">
         <v>102</v>
       </c>
@@ -3327,8 +3514,11 @@
       <c r="J61" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="62" spans="1:10">
+      <c r="K61" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" t="s">
         <v>102</v>
       </c>
@@ -3353,8 +3543,11 @@
       <c r="J62" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="63" spans="1:10">
+      <c r="K62" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" t="s">
         <v>102</v>
       </c>
@@ -3379,8 +3572,11 @@
       <c r="J63" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="64" spans="1:10">
+      <c r="K63" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" t="s">
         <v>102</v>
       </c>
@@ -3405,8 +3601,11 @@
       <c r="J64" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="65" spans="1:10">
+      <c r="K64" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" t="s">
         <v>102</v>
       </c>
@@ -3431,8 +3630,11 @@
       <c r="J65" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" ht="21">
+      <c r="K65" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="21">
       <c r="A66" t="s">
         <v>102</v>
       </c>
@@ -3457,8 +3659,11 @@
       <c r="J66" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="67" spans="1:10">
+      <c r="K66" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" t="s">
         <v>102</v>
       </c>
@@ -3483,8 +3688,11 @@
       <c r="J67" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="68" spans="1:10">
+      <c r="K67" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" t="s">
         <v>102</v>
       </c>
@@ -3509,8 +3717,11 @@
       <c r="J68" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="69" spans="1:10">
+      <c r="K68" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" t="s">
         <v>102</v>
       </c>
@@ -3535,8 +3746,11 @@
       <c r="J69" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="70" spans="1:10">
+      <c r="K69" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" t="s">
         <v>102</v>
       </c>
@@ -3564,8 +3778,11 @@
       <c r="J70" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="71" spans="1:10">
+      <c r="K70" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" t="s">
         <v>166</v>
       </c>
@@ -3593,8 +3810,11 @@
       <c r="J71" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="72" spans="1:10">
+      <c r="K71" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" t="s">
         <v>166</v>
       </c>
@@ -3622,8 +3842,11 @@
       <c r="J72" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="73" spans="1:10">
+      <c r="K72" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" t="s">
         <v>166</v>
       </c>
@@ -3651,8 +3874,11 @@
       <c r="J73" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="74" spans="1:10">
+      <c r="K73" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" t="s">
         <v>166</v>
       </c>
@@ -3677,8 +3903,11 @@
       <c r="J74" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="75" spans="1:10">
+      <c r="K74" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" t="s">
         <v>166</v>
       </c>
@@ -3703,8 +3932,11 @@
       <c r="J75" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="76" spans="1:10">
+      <c r="K75" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" t="s">
         <v>166</v>
       </c>
@@ -3729,8 +3961,11 @@
       <c r="J76" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="77" spans="1:10">
+      <c r="K76" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" t="s">
         <v>166</v>
       </c>
@@ -3755,8 +3990,11 @@
       <c r="J77" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="78" spans="1:10">
+      <c r="K77" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" t="s">
         <v>166</v>
       </c>
@@ -3784,8 +4022,11 @@
       <c r="J78" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="79" spans="1:10">
+      <c r="K78" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" t="s">
         <v>166</v>
       </c>
@@ -3810,8 +4051,11 @@
       <c r="J79" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="80" spans="1:10">
+      <c r="K79" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" t="s">
         <v>166</v>
       </c>
@@ -3839,8 +4083,11 @@
       <c r="J80" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="81" spans="1:10">
+      <c r="K80" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" t="s">
         <v>166</v>
       </c>
@@ -3865,8 +4112,11 @@
       <c r="J81" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="82" spans="1:10">
+      <c r="K81" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" t="s">
         <v>166</v>
       </c>
@@ -3894,8 +4144,11 @@
       <c r="J82" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="83" spans="1:10">
+      <c r="K82" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" t="s">
         <v>166</v>
       </c>
@@ -3920,8 +4173,11 @@
       <c r="J83" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="84" spans="1:10">
+      <c r="K83" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" t="s">
         <v>193</v>
       </c>
@@ -3949,8 +4205,11 @@
       <c r="J84" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="85" spans="1:10">
+      <c r="K84" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" t="s">
         <v>193</v>
       </c>
@@ -3978,8 +4237,11 @@
       <c r="J85" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="86" spans="1:10">
+      <c r="K85" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" t="s">
         <v>193</v>
       </c>
@@ -4007,8 +4269,11 @@
       <c r="J86" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="87" spans="1:10">
+      <c r="K86" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" t="s">
         <v>166</v>
       </c>
@@ -4034,6 +4299,9 @@
         <v>207</v>
       </c>
       <c r="J87" t="s">
+        <v>207</v>
+      </c>
+      <c r="K87" t="s">
         <v>207</v>
       </c>
     </row>
